--- a/СебестоимостьТРЭМ-АГВ+Прайс расчет (калькулятор).xlsx
+++ b/СебестоимостьТРЭМ-АГВ+Прайс расчет (калькулятор).xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk\Desktop\АГВ Проекты\PO_авто\V3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC42096-FDEF-4A67-B4C4-C712EF6B6763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F144C5-2F3C-4A1D-A52E-0B2E5F63BA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2022" sheetId="1" r:id="rId1"/>
     <sheet name="Расчет кол-ва пружин для НПЗ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -720,6 +720,7 @@
       <c r="A2" s="17">
         <v>144</v>
       </c>
+      <c r="B2"/>
       <c r="C2" s="19">
         <f t="array" ref="C2">IFERROR(IFERROR(INDEX($B$3:$F$44,MATCH(A2,B3:B44,0),2),
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),2)+
@@ -1586,8 +1587,8 @@
   <cols>
     <col min="1" max="1" width="14" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="11" customWidth="1"/>
-    <col min="3" max="551" width="8.85546875" style="11" customWidth="1"/>
-    <col min="552" max="16384" width="8.85546875" style="11"/>
+    <col min="3" max="555" width="8.85546875" style="11" customWidth="1"/>
+    <col min="556" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/СебестоимостьТРЭМ-АГВ+Прайс расчет (калькулятор).xlsx
+++ b/СебестоимостьТРЭМ-АГВ+Прайс расчет (калькулятор).xlsx
@@ -1,233 +1,100 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk\Desktop\АГВ Проекты\PO_авто\V3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F144C5-2F3C-4A1D-A52E-0B2E5F63BA74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2022" sheetId="1" r:id="rId1"/>
-    <sheet name="Расчет кол-ва пружин для НПЗ" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Расчет кол-ва пружин для НПЗ" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" refMode="R1C1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1" refMode="R1C1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Denis</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <charset val="204"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">Denis:
-Формула:
-N = D.min + (nD.max-nD.min)/(D.max.-D.min)*(D.-D.min)
-D. – Диаметр искомой суммы
-D.max – Диаметр больше чем искомое значение
-D.min – Диаметр меньше чем искомое значение
-N – искомая сумма
-n – сумма известных Диаметров
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
-  <si>
-    <t>Диаметр нужного клапана</t>
-  </si>
-  <si>
-    <t>Себе-сть 
-Клапан</t>
-  </si>
-  <si>
-    <t>Себе-сть ЗИП</t>
-  </si>
-  <si>
-    <t>Прайс
-Клапан</t>
-  </si>
-  <si>
-    <t>Прайс
-ЗИП</t>
-  </si>
-  <si>
-    <t>Посадочный диаметр</t>
-  </si>
-  <si>
-    <t>Себестоимость 
-от 01.12.2022</t>
-  </si>
-  <si>
-    <t>Прайс 
-от 01.12.2022</t>
-  </si>
-  <si>
-    <t>Клапан</t>
-  </si>
-  <si>
-    <t>ЗИП</t>
-  </si>
-  <si>
-    <t>КК-62, КК-82</t>
-  </si>
-  <si>
-    <t>Cook картр.</t>
-  </si>
-  <si>
-    <t>Кольцо</t>
-  </si>
-  <si>
-    <t>#18-5,6,8,9</t>
-  </si>
-  <si>
-    <t>Пружина</t>
-  </si>
-  <si>
-    <t>Картридж (бочонок)</t>
-  </si>
-  <si>
-    <t>#21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-Вилка РУ на клапаны диаметром до 150мм – 15000 (Без НДС)
--Вилка РУ на клапаны диаметром от 150мм до 250мм – 25000 (Без НДС)
--Вилка РУ на клапаны диаметром от 250мм – 35000 (Без НДС)
--КК = с/с клапана +40%
--Стоимость ЗИП по умолчанию составляет 30% стоимости клапана
-Цены:
-- на клапаны для перепада и конечного давления более 6,4МПа 
-- производителям компрессорного оборудования
-- пэкиджерам импортных компрессоров
-- ЗИП к импортным клапанам COOK, CPI, Hoerbiger
-</t>
-  </si>
-  <si>
-    <t>При подаче предложений на тендер взамен импортных клапанов цены согласовывать в обязательном порядке</t>
-  </si>
-  <si>
-    <t>Посадочный D</t>
-  </si>
-  <si>
-    <t>Кол-во пружин</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color indexed="8"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
       <color indexed="8"/>
+      <sz val="12"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color indexed="8"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <color indexed="8"/>
+      <sz val="11"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color rgb="FFFF0000"/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -251,7 +118,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -315,6 +182,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -323,73 +210,155 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Обычный 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 3" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
+</file>
+
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Denis</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0">
+      <text>
+        <t xml:space="preserve">Denis:
+Формула:
+N = D.min + (nD.max-nD.min)/(D.max.-D.min)*(D.-D.min)
+D. – Диаметр искомой суммы
+D.max – Диаметр больше чем искомое значение
+D.min – Диаметр меньше чем искомое значение
+N – искомая сумма
+n – сумма известных Диаметров
+</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -678,7 +647,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -686,48 +659,61 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
+    <col width="19.7109375" customWidth="1" style="21" min="1" max="1"/>
+    <col width="14.7109375" customWidth="1" style="21" min="2" max="2"/>
+    <col width="15.7109375" customWidth="1" style="21" min="3" max="3"/>
+    <col width="11.85546875" customWidth="1" style="21" min="4" max="4"/>
+    <col width="13.7109375" bestFit="1" customWidth="1" style="21" min="5" max="5"/>
+    <col width="14.42578125" customWidth="1" style="21" min="6" max="6"/>
+    <col width="11" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
+    <col width="12" customWidth="1" style="21" min="9" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="18" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
-        <v>144</v>
-      </c>
-      <c r="B2"/>
+    <row r="1" ht="32.25" customHeight="1" s="21" thickBot="1">
+      <c r="A1" s="16" t="inlineStr">
+        <is>
+          <t>Диаметр нужного клапана</t>
+        </is>
+      </c>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>Себе-сть 
+Клапан</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>Себе-сть ЗИП</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Прайс
+Клапан</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Прайс
+ЗИП</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="39.75" customFormat="1" customHeight="1" s="18" thickBot="1">
+      <c r="A2" s="17" t="n">
+        <v>102</v>
+      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" s="19">
         <f t="array" ref="C2">IFERROR(IFERROR(INDEX($B$3:$F$44,MATCH(A2,B3:B44,0),2),
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),2)+
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,2)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),2))/
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,1)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1))
 *SUM(A2-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1)))),"нет такого диаметра")</f>
-        <v>32304</v>
+        <v/>
       </c>
       <c r="D2" s="19">
         <f t="array" ref="D2">IFERROR(IFERROR(INDEX($B$3:$F$44,MATCH(A2,B3:B44,0),3),
@@ -735,7 +721,7 @@
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,3)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),3))/
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,1)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1))
 *SUM(A2-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1)))),"нет такого диаметра")</f>
-        <v>9691.2000000000007</v>
+        <v/>
       </c>
       <c r="E2" s="19">
         <f t="array" ref="E2">IFERROR(IFERROR(INDEX($B$3:$F$44,MATCH(A2,B3:B44,0),4),
@@ -743,7 +729,7 @@
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,4)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),4))/
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,1)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1))
 *SUM(A2-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1)))),"нет такого диаметра")</f>
-        <v>94112</v>
+        <v/>
       </c>
       <c r="F2" s="19">
         <f t="array" ref="F2">IFERROR(IFERROR(INDEX($B$3:$F$44,MATCH(A2,B3:B44,0),5),
@@ -751,816 +737,857 @@
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,5)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),5))/
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,1)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1))
 *SUM(A2-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1)))),"нет такого диаметра")</f>
-        <v>28232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3">
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="31.5" customHeight="1" s="21">
+      <c r="A3" s="1" t="n"/>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Посадочный диаметр</t>
+        </is>
+      </c>
+      <c r="C3" s="24" t="inlineStr">
+        <is>
+          <t>Себестоимость 
+от 01.12.2022</t>
+        </is>
+      </c>
+      <c r="D3" s="23" t="n"/>
+      <c r="E3" s="22" t="inlineStr">
+        <is>
+          <t>Прайс 
+от 01.12.2022</t>
+        </is>
+      </c>
+      <c r="F3" s="23" t="n"/>
+    </row>
+    <row r="4" ht="15.75" customHeight="1" s="21">
+      <c r="A4" s="2" t="n"/>
+      <c r="B4" s="7" t="n"/>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>Клапан</t>
+        </is>
+      </c>
+      <c r="D4" s="9" t="inlineStr">
+        <is>
+          <t>ЗИП</t>
+        </is>
+      </c>
+      <c r="E4" s="9" t="inlineStr">
+        <is>
+          <t>Клапан</t>
+        </is>
+      </c>
+      <c r="F4" s="9" t="inlineStr">
+        <is>
+          <t>ЗИП</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1" s="21">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="n">
         <v>85</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="8" t="n">
         <v>28320</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="8" t="n">
         <v>8496</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="8" t="n">
         <v>44800</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="8" t="n">
         <v>13440</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="3">
+    <row r="6" ht="15.75" customHeight="1" s="21">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="8" t="n">
         <v>28320</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="8" t="n">
         <v>8496</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="8" t="n">
         <v>52800</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="8" t="n">
         <v>15840</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="3">
+    <row r="7" ht="15.75" customHeight="1" s="21">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="n">
         <v>110</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="8" t="n">
         <v>28320</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="8" t="n">
         <v>8496</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="8" t="n">
         <v>64800</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="8" t="n">
         <v>19440</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="3">
+    <row r="8" ht="15.75" customHeight="1" s="21">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="n">
         <v>115</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="8" t="n">
         <v>28320</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="8" t="n">
         <v>8496</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="8" t="n">
         <v>64800</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="8" t="n">
         <v>19440</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="3">
+    <row r="9" ht="15.75" customHeight="1" s="21">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="n">
         <v>120</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="8" t="n">
         <v>28320</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="8" t="n">
         <v>8496</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="8" t="n">
         <v>68960</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="8" t="n">
         <v>20690</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="3">
+    <row r="10" ht="15.75" customHeight="1" s="21">
+      <c r="A10" s="1" t="n"/>
+      <c r="B10" s="3" t="n">
         <v>125</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="8" t="n">
         <v>28320</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="8" t="n">
         <v>8496</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="8" t="n">
         <v>68960</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="8" t="n">
         <v>20690</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="3">
+    <row r="11" ht="15.75" customHeight="1" s="21">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="n">
         <v>130</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="8" t="n">
         <v>28320</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="8" t="n">
         <v>8496</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="8" t="n">
         <v>71680</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="8" t="n">
         <v>21500</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="3">
+    <row r="12" ht="15.75" customHeight="1" s="21">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="n">
         <v>135</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="8" t="n">
         <v>29400</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="8" t="n">
         <v>8820</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="8" t="n">
         <v>85630</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="8" t="n">
         <v>25690</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="3">
+    <row r="13" ht="15.75" customHeight="1" s="21">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="n">
         <v>137</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="8" t="n">
         <v>29880</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="8" t="n">
         <v>8964</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="8" t="n">
         <v>86900</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="8" t="n">
         <v>26070</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="3">
+    <row r="14" ht="17.25" customHeight="1" s="21">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="n">
         <v>140</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="8" t="n">
         <v>30480</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="8" t="n">
         <v>9144</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="8" t="n">
         <v>88800</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="8" t="n">
         <v>26640</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="3">
+    <row r="15" ht="15.75" customHeight="1" s="21">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="8" t="n">
         <v>35040</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="8" t="n">
         <v>10512</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="8" t="n">
         <v>102080</v>
       </c>
-      <c r="F15" s="8">
+      <c r="F15" s="8" t="n">
         <v>30620</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="3">
+    <row r="16" ht="15.75" customHeight="1" s="21">
+      <c r="A16" s="1" t="n"/>
+      <c r="B16" s="3" t="n">
         <v>155</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="8" t="n">
         <v>36240</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="8" t="n">
         <v>10872</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="8" t="n">
         <v>105520</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="8" t="n">
         <v>31660</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3">
+    <row r="17" ht="15.75" customHeight="1" s="21">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="n">
         <v>160</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="8" t="n">
         <v>37440</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="8" t="n">
         <v>11232</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="8" t="n">
         <v>108960</v>
       </c>
-      <c r="F17" s="8">
+      <c r="F17" s="8" t="n">
         <v>32690</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3">
+    <row r="18" ht="15.75" customHeight="1" s="21">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="n">
         <v>163</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="8" t="n">
         <v>38040</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="8" t="n">
         <v>11412</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="8" t="n">
         <v>111040</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="8" t="n">
         <v>33310</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3">
+    <row r="19" ht="15.75" customHeight="1" s="21">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="n">
         <v>165</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="8" t="n">
         <v>38520</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="8" t="n">
         <v>11556</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="8" t="n">
         <v>112400</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="8" t="n">
         <v>33720</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3">
+    <row r="20" ht="15.75" customHeight="1" s="21">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="n">
         <v>171</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="8" t="n">
         <v>42720</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="8" t="n">
         <v>12816</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="8" t="n">
         <v>123890</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="8" t="n">
         <v>37170</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
-      <c r="B21" s="3">
+    <row r="21" ht="15.75" customHeight="1" s="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="n">
         <v>175</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="8" t="n">
         <v>43440</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="8" t="n">
         <v>13032</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="8" t="n">
         <v>125980</v>
       </c>
-      <c r="F21" s="8">
+      <c r="F21" s="8" t="n">
         <v>37790</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="3">
+    <row r="22" ht="15.75" customHeight="1" s="21">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="n">
         <v>180</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="8" t="n">
         <v>44760</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="8" t="n">
         <v>13428</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="8" t="n">
         <v>130240</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="8" t="n">
         <v>39070</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="3">
+    <row r="23" ht="15.75" customHeight="1" s="21">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="n">
         <v>185</v>
       </c>
-      <c r="C23" s="8">
+      <c r="C23" s="8" t="n">
         <v>46020</v>
       </c>
-      <c r="D23" s="8">
+      <c r="D23" s="8" t="n">
         <v>13806</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="8" t="n">
         <v>133820</v>
       </c>
-      <c r="F23" s="8">
+      <c r="F23" s="8" t="n">
         <v>40150</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="3">
+    <row r="24" ht="15.75" customHeight="1" s="21">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="n">
         <v>192</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="8" t="n">
         <v>47760</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="8" t="n">
         <v>14328</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="8" t="n">
         <v>138880</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="8" t="n">
         <v>41660</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="3">
+    <row r="25" ht="15.75" customHeight="1" s="21">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="n">
         <v>202</v>
       </c>
-      <c r="C25" s="8">
+      <c r="C25" s="8" t="n">
         <v>50160</v>
       </c>
-      <c r="D25" s="8">
+      <c r="D25" s="8" t="n">
         <v>15048</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="8" t="n">
         <v>146320</v>
       </c>
-      <c r="F25" s="8">
+      <c r="F25" s="8" t="n">
         <v>43900</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="3">
+      <c r="G25" s="14" t="n"/>
+      <c r="I25" s="15" t="n"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1" s="21">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="n">
         <v>203</v>
       </c>
-      <c r="C26" s="8">
+      <c r="C26" s="8" t="n">
         <v>50400</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="8" t="n">
         <v>15120</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="8" t="n">
         <v>147050</v>
       </c>
-      <c r="F26" s="8">
+      <c r="F26" s="8" t="n">
         <v>44110</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="3">
+    <row r="27" ht="15.75" customHeight="1" s="21">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="n">
         <v>204</v>
       </c>
-      <c r="C27" s="8">
+      <c r="C27" s="8" t="n">
         <v>50640</v>
       </c>
-      <c r="D27" s="8">
+      <c r="D27" s="8" t="n">
         <v>15192</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="8" t="n">
         <v>147770</v>
       </c>
-      <c r="F27" s="8">
+      <c r="F27" s="8" t="n">
         <v>44330</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="3">
+    <row r="28" ht="15.75" customHeight="1" s="21">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="3" t="n">
         <v>220</v>
       </c>
-      <c r="C28" s="8">
+      <c r="C28" s="8" t="n">
         <v>54720</v>
       </c>
-      <c r="D28" s="8">
+      <c r="D28" s="8" t="n">
         <v>16416</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="8" t="n">
         <v>159360</v>
       </c>
-      <c r="F28" s="8">
+      <c r="F28" s="8" t="n">
         <v>47810</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="3">
+    <row r="29" ht="15.75" customHeight="1" s="21">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="n">
         <v>224</v>
       </c>
-      <c r="C29" s="8">
+      <c r="C29" s="8" t="n">
         <v>55716</v>
       </c>
-      <c r="D29" s="8">
+      <c r="D29" s="8" t="n">
         <v>16714.8</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="8" t="n">
         <v>162000</v>
       </c>
-      <c r="F29" s="8">
+      <c r="F29" s="8" t="n">
         <v>48600</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="3">
+    <row r="30" ht="15.75" customHeight="1" s="21">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="n">
         <v>225</v>
       </c>
-      <c r="C30" s="8">
+      <c r="C30" s="8" t="n">
         <v>55956</v>
       </c>
-      <c r="D30" s="8">
+      <c r="D30" s="8" t="n">
         <v>16786.8</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="8" t="n">
         <v>162720</v>
       </c>
-      <c r="F30" s="8">
+      <c r="F30" s="8" t="n">
         <v>48820</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="3">
+    <row r="31" ht="15.75" customHeight="1" s="21">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="n">
         <v>230</v>
       </c>
-      <c r="C31" s="8">
+      <c r="C31" s="8" t="n">
         <v>57204</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="8" t="n">
         <v>17161.2</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="8" t="n">
         <v>166340</v>
       </c>
-      <c r="F31" s="8">
+      <c r="F31" s="8" t="n">
         <v>49900</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="3">
+    <row r="32" ht="15.75" customHeight="1" s="21">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="n">
         <v>235</v>
       </c>
-      <c r="C32" s="8">
+      <c r="C32" s="8" t="n">
         <v>66036</v>
       </c>
-      <c r="D32" s="8">
+      <c r="D32" s="8" t="n">
         <v>19810.8</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="8" t="n">
         <v>191500</v>
       </c>
-      <c r="F32" s="8">
+      <c r="F32" s="8" t="n">
         <v>57450</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="3">
+    <row r="33" ht="15.75" customHeight="1" s="21">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="n">
         <v>240</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="8" t="n">
         <v>67440</v>
       </c>
-      <c r="D33" s="8">
+      <c r="D33" s="8" t="n">
         <v>20232</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="8" t="n">
         <v>195580</v>
       </c>
-      <c r="F33" s="8">
+      <c r="F33" s="8" t="n">
         <v>58670</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="3">
+    <row r="34" ht="15.75" customHeight="1" s="21">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="n">
         <v>245</v>
       </c>
-      <c r="C34" s="8">
+      <c r="C34" s="8" t="n">
         <v>68088</v>
       </c>
-      <c r="D34" s="8">
-        <v>20426.400000000001</v>
-      </c>
-      <c r="E34" s="8">
+      <c r="D34" s="8" t="n">
+        <v>20426.4</v>
+      </c>
+      <c r="E34" s="8" t="n">
         <v>197460</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="8" t="n">
         <v>59240</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="3">
+    <row r="35" ht="15.75" customHeight="1" s="21">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="n">
         <v>250</v>
       </c>
-      <c r="C35" s="8">
+      <c r="C35" s="8" t="n">
         <v>69480</v>
       </c>
-      <c r="D35" s="8">
+      <c r="D35" s="8" t="n">
         <v>20844</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="8" t="n">
         <v>201490</v>
       </c>
-      <c r="F35" s="8">
+      <c r="F35" s="8" t="n">
         <v>60450</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="3">
+    <row r="36" ht="15.75" customHeight="1" s="21">
+      <c r="A36" s="1" t="n"/>
+      <c r="B36" s="3" t="n">
         <v>255</v>
       </c>
-      <c r="C36" s="8">
+      <c r="C36" s="8" t="n">
         <v>101388</v>
       </c>
-      <c r="D36" s="8">
-        <v>30416.400000000001</v>
-      </c>
-      <c r="E36" s="8">
+      <c r="D36" s="8" t="n">
+        <v>30416.4</v>
+      </c>
+      <c r="E36" s="8" t="n">
         <v>294030</v>
       </c>
-      <c r="F36" s="8">
+      <c r="F36" s="8" t="n">
         <v>88210</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="3">
+    <row r="37" ht="15.75" customHeight="1" s="21">
+      <c r="A37" s="1" t="n"/>
+      <c r="B37" s="3" t="n">
         <v>260</v>
       </c>
-      <c r="C37" s="8">
+      <c r="C37" s="8" t="n">
         <v>103380</v>
       </c>
-      <c r="D37" s="8">
+      <c r="D37" s="8" t="n">
         <v>31014</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="8" t="n">
         <v>299800</v>
       </c>
-      <c r="F37" s="8">
+      <c r="F37" s="8" t="n">
         <v>89940</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="3">
+    <row r="38" ht="15.75" customHeight="1" s="21">
+      <c r="A38" s="1" t="n"/>
+      <c r="B38" s="3" t="n">
         <v>265</v>
       </c>
-      <c r="C38" s="8">
+      <c r="C38" s="8" t="n">
         <v>105360</v>
       </c>
-      <c r="D38" s="8">
+      <c r="D38" s="8" t="n">
         <v>31608</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="8" t="n">
         <v>305540</v>
       </c>
-      <c r="F38" s="8">
+      <c r="F38" s="8" t="n">
         <v>91660</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="3">
+    <row r="39" ht="15.75" customHeight="1" s="21">
+      <c r="A39" s="1" t="n"/>
+      <c r="B39" s="3" t="n">
         <v>305</v>
       </c>
-      <c r="C39" s="8">
+      <c r="C39" s="8" t="n">
         <v>134430</v>
       </c>
-      <c r="D39" s="8">
+      <c r="D39" s="8" t="n">
         <v>40329</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="8" t="n">
         <v>389860</v>
       </c>
-      <c r="F39" s="8">
+      <c r="F39" s="8" t="n">
         <v>116960</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="3">
+    <row r="40" ht="15.75" customHeight="1" s="21">
+      <c r="A40" s="1" t="n"/>
+      <c r="B40" s="3" t="n">
         <v>310</v>
       </c>
-      <c r="C40" s="8">
+      <c r="C40" s="8" t="n">
         <v>136630</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="8" t="n">
         <v>40989</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="8" t="n">
         <v>396250</v>
       </c>
-      <c r="F40" s="8">
+      <c r="F40" s="8" t="n">
         <v>118870</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1"/>
-      <c r="B41" s="3">
+    <row r="41" ht="15.75" customHeight="1" s="21">
+      <c r="A41" s="1" t="n"/>
+      <c r="B41" s="3" t="n">
         <v>335</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="8" t="n">
         <v>147650</v>
       </c>
-      <c r="D41" s="8">
+      <c r="D41" s="8" t="n">
         <v>44295</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="8" t="n">
         <v>428200</v>
       </c>
-      <c r="F41" s="8">
+      <c r="F41" s="8" t="n">
         <v>128460</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1"/>
-      <c r="B42" s="3">
+    <row r="42" ht="15.75" customHeight="1" s="21">
+      <c r="A42" s="1" t="n"/>
+      <c r="B42" s="3" t="n">
         <v>338</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="8" t="n">
         <v>149860</v>
       </c>
-      <c r="D42" s="8">
+      <c r="D42" s="8" t="n">
         <v>44958</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="8" t="n">
         <v>434590</v>
       </c>
-      <c r="F42" s="8">
+      <c r="F42" s="8" t="n">
         <v>130380</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3">
+    <row r="43" ht="15.75" customHeight="1" s="21">
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="3" t="n">
         <v>340</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="8" t="n">
         <v>149860</v>
       </c>
-      <c r="D43" s="8">
+      <c r="D43" s="8" t="n">
         <v>44958</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="8" t="n">
         <v>434590</v>
       </c>
-      <c r="F43" s="8">
+      <c r="F43" s="8" t="n">
         <v>130380</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="8">
+    <row r="44" ht="15.75" customHeight="1" s="21">
+      <c r="A44" s="3" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>КК-62, КК-82</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
         <v>34800</v>
       </c>
-      <c r="D44" s="8">
+      <c r="D44" s="8" t="n">
         <v>10440</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="8" t="n">
         <v>100920</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="8" t="n">
         <v>30280</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="6">
+    <row r="45" ht="17.25" customHeight="1" s="21"/>
+    <row r="46" ht="15.75" customHeight="1" s="21">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Cook картр.</t>
+        </is>
+      </c>
+      <c r="B46" s="4" t="inlineStr">
+        <is>
+          <t>Кольцо</t>
+        </is>
+      </c>
+      <c r="C46" s="6" t="n">
         <v>482</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C47" s="6">
+    <row r="47" ht="15.75" customHeight="1" s="21">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>#18-5,6,8,9</t>
+        </is>
+      </c>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t>Пружина</t>
+        </is>
+      </c>
+      <c r="C47" s="6" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C48" s="6">
+    <row r="48" ht="15.75" customHeight="1" s="21">
+      <c r="B48" s="4" t="inlineStr">
+        <is>
+          <t>Картридж (бочонок)</t>
+        </is>
+      </c>
+      <c r="C48" s="6" t="n">
         <v>963</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>16</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C49" s="6">
+    <row r="49" ht="15.75" customHeight="1" s="21">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>#21</t>
+        </is>
+      </c>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t>Пружина</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="n">
         <v>650</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="163.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B51" s="21"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="21"/>
-      <c r="F51" s="21"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>18</v>
+    <row r="51" ht="163.15" customHeight="1" s="21">
+      <c r="A51" s="20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">-Вилка РУ на клапаны диаметром до 150мм – 15000 (Без НДС)
+-Вилка РУ на клапаны диаметром от 150мм до 250мм – 25000 (Без НДС)
+-Вилка РУ на клапаны диаметром от 250мм – 35000 (Без НДС)
+-КК = с/с клапана +40%
+-Стоимость ЗИП по умолчанию составляет 30% стоимости клапана
+Цены:
+- на клапаны для перепада и конечного давления более 6,4МПа 
+- производителям компрессорного оборудования
+- пэкиджерам импортных компрессоров
+- ЗИП к импортным клапанам COOK, CPI, Hoerbiger
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="10" t="inlineStr">
+        <is>
+          <t>При подаче предложений на тендер взамен импортных клапанов цены согласовывать в обязательном порядке</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1569,137 +1596,145 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <pageMargins left="0" right="0.23622047244094491" top="0" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
-  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0" right="0.2362204724409449" top="0" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="65"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14" style="11" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="11" customWidth="1"/>
-    <col min="3" max="555" width="8.85546875" style="11" customWidth="1"/>
-    <col min="556" max="16384" width="8.85546875" style="11"/>
+    <col width="14" customWidth="1" style="11" min="1" max="1"/>
+    <col width="15.140625" customWidth="1" style="11" min="2" max="2"/>
+    <col width="8.85546875" customWidth="1" style="11" min="3" max="574"/>
+    <col width="8.85546875" customWidth="1" style="11" min="575" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="12">
+    <row r="1">
+      <c r="A1" s="13" t="inlineStr">
+        <is>
+          <t>Посадочный D</t>
+        </is>
+      </c>
+      <c r="B1" s="13" t="inlineStr">
+        <is>
+          <t>Кол-во пружин</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="12" t="n">
         <v>100</v>
       </c>
       <c r="B2" s="12">
-        <f t="shared" ref="B2:B12" si="0">ROUND(POWER(A2/2,1.5)/43,0)</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="12">
+        <f>ROUND(POWER(A2/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="12" t="n">
         <v>110</v>
       </c>
       <c r="B3" s="12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+        <f>ROUND(POWER(A3/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="n">
         <v>120</v>
       </c>
       <c r="B4" s="12">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="12">
+        <f>ROUND(POWER(A4/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="12" t="n">
         <v>140</v>
       </c>
       <c r="B5" s="12">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
+        <f>ROUND(POWER(A5/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="12" t="n">
         <v>160</v>
       </c>
       <c r="B6" s="12">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
+        <f>ROUND(POWER(A6/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="12" t="n">
         <v>180</v>
       </c>
       <c r="B7" s="12">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
+        <f>ROUND(POWER(A7/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="12" t="n">
         <v>200</v>
       </c>
       <c r="B8" s="12">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+        <f>ROUND(POWER(A8/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="12" t="n">
         <v>220</v>
       </c>
       <c r="B9" s="12">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+        <f>ROUND(POWER(A9/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="12" t="n">
         <v>240</v>
       </c>
       <c r="B10" s="12">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+        <f>ROUND(POWER(A10/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="12" t="n">
         <v>270</v>
       </c>
       <c r="B11" s="12">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+        <f>ROUND(POWER(A11/2,1.5)/43,0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="n">
         <v>300</v>
       </c>
       <c r="B12" s="12">
-        <f t="shared" si="0"/>
-        <v>43</v>
+        <f>ROUND(POWER(A12/2,1.5)/43,0)</f>
+        <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/СебестоимостьТРЭМ-АГВ+Прайс расчет (калькулятор).xlsx
+++ b/СебестоимостьТРЭМ-АГВ+Прайс расчет (калькулятор).xlsx
@@ -1,100 +1,233 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sk\Desktop\АГВ Проекты\PO_авто\V3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0894E7A9-56C3-4BC9-9537-EF3428BE83EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Расчет кол-ва пружин для НПЗ" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="2022" sheetId="1" r:id="rId1"/>
+    <sheet name="Расчет кол-ва пружин для НПЗ" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Denis</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="204"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t xml:space="preserve">Denis:
+Формула:
+N = D.min + (nD.max-nD.min)/(D.max.-D.min)*(D.-D.min)
+D. – Диаметр искомой суммы
+D.max – Диаметр больше чем искомое значение
+D.min – Диаметр меньше чем искомое значение
+N – искомая сумма
+n – сумма известных Диаметров
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+  <si>
+    <t>Диаметр нужного клапана</t>
+  </si>
+  <si>
+    <t>Себе-сть 
+Клапан</t>
+  </si>
+  <si>
+    <t>Себе-сть ЗИП</t>
+  </si>
+  <si>
+    <t>Прайс
+Клапан</t>
+  </si>
+  <si>
+    <t>Прайс
+ЗИП</t>
+  </si>
+  <si>
+    <t>Посадочный диаметр</t>
+  </si>
+  <si>
+    <t>Себестоимость 
+от 01.12.2022</t>
+  </si>
+  <si>
+    <t>Прайс 
+от 01.12.2022</t>
+  </si>
+  <si>
+    <t>Клапан</t>
+  </si>
+  <si>
+    <t>ЗИП</t>
+  </si>
+  <si>
+    <t>КК-62, КК-82</t>
+  </si>
+  <si>
+    <t>Cook картр.</t>
+  </si>
+  <si>
+    <t>Кольцо</t>
+  </si>
+  <si>
+    <t>#18-5,6,8,9</t>
+  </si>
+  <si>
+    <t>Пружина</t>
+  </si>
+  <si>
+    <t>Картридж (бочонок)</t>
+  </si>
+  <si>
+    <t>#21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-Вилка РУ на клапаны диаметром до 150мм – 15000 (Без НДС)
+-Вилка РУ на клапаны диаметром от 150мм до 250мм – 25000 (Без НДС)
+-Вилка РУ на клапаны диаметром от 250мм – 35000 (Без НДС)
+-КК = с/с клапана +40%
+-Стоимость ЗИП по умолчанию составляет 30% стоимости клапана
+Цены:
+- на клапаны для перепада и конечного давления более 6,4МПа 
+- производителям компрессорного оборудования
+- пэкиджерам импортных компрессоров
+- ЗИП к импортным клапанам COOK, CPI, Hoerbiger
+</t>
+  </si>
+  <si>
+    <t>При подаче предложений на тендер взамен импортных клапанов цены согласовывать в обязательном порядке</t>
+  </si>
+  <si>
+    <t>Посадочный D</t>
+  </si>
+  <si>
+    <t>Кол-во пружин</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₽_-;\-* #,##0.00\ _₽_-;_-* &quot;-&quot;??\ _₽_-;_-@_-"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color indexed="8"/>
-      <sz val="11"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="12"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -118,7 +251,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -182,26 +315,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -210,155 +323,73 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="25">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="3"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="3">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Обычный 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
-    <cellStyle name="Обычный 2" xfId="2"/>
-    <cellStyle name="Обычный 3" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Denis</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
-      <text>
-        <t xml:space="preserve">Denis:
-Формула:
-N = D.min + (nD.max-nD.min)/(D.max.-D.min)*(D.-D.min)
-D. – Диаметр искомой суммы
-D.max – Диаметр больше чем искомое значение
-D.min – Диаметр меньше чем искомое значение
-N – искомая сумма
-n – сумма известных Диаметров
-</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -647,11 +678,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -659,61 +686,48 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="19.7109375" customWidth="1" style="21" min="1" max="1"/>
-    <col width="14.7109375" customWidth="1" style="21" min="2" max="2"/>
-    <col width="15.7109375" customWidth="1" style="21" min="3" max="3"/>
-    <col width="11.85546875" customWidth="1" style="21" min="4" max="4"/>
-    <col width="13.7109375" bestFit="1" customWidth="1" style="21" min="5" max="5"/>
-    <col width="14.42578125" customWidth="1" style="21" min="6" max="6"/>
-    <col width="11" bestFit="1" customWidth="1" style="21" min="7" max="7"/>
-    <col width="12" customWidth="1" style="21" min="9" max="9"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="32.25" customHeight="1" s="21" thickBot="1">
-      <c r="A1" s="16" t="inlineStr">
-        <is>
-          <t>Диаметр нужного клапана</t>
-        </is>
-      </c>
-      <c r="B1" s="16" t="n"/>
-      <c r="C1" s="5" t="inlineStr">
-        <is>
-          <t>Себе-сть 
-Клапан</t>
-        </is>
-      </c>
-      <c r="D1" s="5" t="inlineStr">
-        <is>
-          <t>Себе-сть ЗИП</t>
-        </is>
-      </c>
-      <c r="E1" s="5" t="inlineStr">
-        <is>
-          <t>Прайс
-Клапан</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
-          <t>Прайс
-ЗИП</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="39.75" customFormat="1" customHeight="1" s="18" thickBot="1">
-      <c r="A2" s="17" t="n">
-        <v>102</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
+    <row r="1" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="18" customFormat="1" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="17">
+        <v>221</v>
+      </c>
+      <c r="B2"/>
       <c r="C2" s="19">
         <f t="array" ref="C2">IFERROR(IFERROR(INDEX($B$3:$F$44,MATCH(A2,B3:B44,0),2),
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),2)+
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,2)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),2))/
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,1)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1))
 *SUM(A2-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1)))),"нет такого диаметра")</f>
-        <v/>
+        <v>54969</v>
       </c>
       <c r="D2" s="19">
         <f t="array" ref="D2">IFERROR(IFERROR(INDEX($B$3:$F$44,MATCH(A2,B3:B44,0),3),
@@ -721,7 +735,7 @@
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,3)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),3))/
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,1)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1))
 *SUM(A2-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1)))),"нет такого диаметра")</f>
-        <v/>
+        <v>16490.7</v>
       </c>
       <c r="E2" s="19">
         <f t="array" ref="E2">IFERROR(IFERROR(INDEX($B$3:$F$44,MATCH(A2,B3:B44,0),4),
@@ -729,7 +743,7 @@
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,4)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),4))/
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,1)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1))
 *SUM(A2-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1)))),"нет такого диаметра")</f>
-        <v/>
+        <v>160020</v>
       </c>
       <c r="F2" s="19">
         <f t="array" ref="F2">IFERROR(IFERROR(INDEX($B$3:$F$44,MATCH(A2,B3:B44,0),5),
@@ -737,857 +751,816 @@
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,5)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),5))/
 SUM(INDEX($B$3:$F$44,MATCH(A2,B3:B44,1)+1,1)-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1))
 *SUM(A2-INDEX($B$3:$F$44,MATCH(A2,B3:B44,1),1)))),"нет такого диаметра")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" ht="31.5" customHeight="1" s="21">
-      <c r="A3" s="1" t="n"/>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Посадочный диаметр</t>
-        </is>
-      </c>
-      <c r="C3" s="24" t="inlineStr">
-        <is>
-          <t>Себестоимость 
-от 01.12.2022</t>
-        </is>
-      </c>
-      <c r="D3" s="23" t="n"/>
-      <c r="E3" s="22" t="inlineStr">
-        <is>
-          <t>Прайс 
-от 01.12.2022</t>
-        </is>
-      </c>
-      <c r="F3" s="23" t="n"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1" s="21">
-      <c r="A4" s="2" t="n"/>
-      <c r="B4" s="7" t="n"/>
-      <c r="C4" s="9" t="inlineStr">
-        <is>
-          <t>Клапан</t>
-        </is>
-      </c>
-      <c r="D4" s="9" t="inlineStr">
-        <is>
-          <t>ЗИП</t>
-        </is>
-      </c>
-      <c r="E4" s="9" t="inlineStr">
-        <is>
-          <t>Клапан</t>
-        </is>
-      </c>
-      <c r="F4" s="9" t="inlineStr">
-        <is>
-          <t>ЗИП</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1" s="21">
-      <c r="A5" s="1" t="n"/>
-      <c r="B5" s="3" t="n">
+        <v>48007.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3">
         <v>85</v>
       </c>
-      <c r="C5" s="8" t="n">
+      <c r="C5" s="8">
         <v>28320</v>
       </c>
-      <c r="D5" s="8" t="n">
+      <c r="D5" s="8">
         <v>8496</v>
       </c>
-      <c r="E5" s="8" t="n">
+      <c r="E5" s="8">
         <v>44800</v>
       </c>
-      <c r="F5" s="8" t="n">
+      <c r="F5" s="8">
         <v>13440</v>
       </c>
     </row>
-    <row r="6" ht="15.75" customHeight="1" s="21">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="n">
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="3">
         <v>100</v>
       </c>
-      <c r="C6" s="8" t="n">
+      <c r="C6" s="8">
         <v>28320</v>
       </c>
-      <c r="D6" s="8" t="n">
+      <c r="D6" s="8">
         <v>8496</v>
       </c>
-      <c r="E6" s="8" t="n">
+      <c r="E6" s="8">
         <v>52800</v>
       </c>
-      <c r="F6" s="8" t="n">
+      <c r="F6" s="8">
         <v>15840</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1" s="21">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="n">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="3">
         <v>110</v>
       </c>
-      <c r="C7" s="8" t="n">
+      <c r="C7" s="8">
         <v>28320</v>
       </c>
-      <c r="D7" s="8" t="n">
+      <c r="D7" s="8">
         <v>8496</v>
       </c>
-      <c r="E7" s="8" t="n">
+      <c r="E7" s="8">
         <v>64800</v>
       </c>
-      <c r="F7" s="8" t="n">
+      <c r="F7" s="8">
         <v>19440</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1" s="21">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="3" t="n">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="3">
         <v>115</v>
       </c>
-      <c r="C8" s="8" t="n">
+      <c r="C8" s="8">
         <v>28320</v>
       </c>
-      <c r="D8" s="8" t="n">
+      <c r="D8" s="8">
         <v>8496</v>
       </c>
-      <c r="E8" s="8" t="n">
+      <c r="E8" s="8">
         <v>64800</v>
       </c>
-      <c r="F8" s="8" t="n">
+      <c r="F8" s="8">
         <v>19440</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1" s="21">
-      <c r="A9" s="1" t="n"/>
-      <c r="B9" s="3" t="n">
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="3">
         <v>120</v>
       </c>
-      <c r="C9" s="8" t="n">
+      <c r="C9" s="8">
         <v>28320</v>
       </c>
-      <c r="D9" s="8" t="n">
+      <c r="D9" s="8">
         <v>8496</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="8">
         <v>68960</v>
       </c>
-      <c r="F9" s="8" t="n">
+      <c r="F9" s="8">
         <v>20690</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1" s="21">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="n">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="3">
         <v>125</v>
       </c>
-      <c r="C10" s="8" t="n">
+      <c r="C10" s="8">
         <v>28320</v>
       </c>
-      <c r="D10" s="8" t="n">
+      <c r="D10" s="8">
         <v>8496</v>
       </c>
-      <c r="E10" s="8" t="n">
+      <c r="E10" s="8">
         <v>68960</v>
       </c>
-      <c r="F10" s="8" t="n">
+      <c r="F10" s="8">
         <v>20690</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1" s="21">
-      <c r="A11" s="1" t="n"/>
-      <c r="B11" s="3" t="n">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="3">
         <v>130</v>
       </c>
-      <c r="C11" s="8" t="n">
+      <c r="C11" s="8">
         <v>28320</v>
       </c>
-      <c r="D11" s="8" t="n">
+      <c r="D11" s="8">
         <v>8496</v>
       </c>
-      <c r="E11" s="8" t="n">
+      <c r="E11" s="8">
         <v>71680</v>
       </c>
-      <c r="F11" s="8" t="n">
+      <c r="F11" s="8">
         <v>21500</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1" s="21">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="3" t="n">
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3">
         <v>135</v>
       </c>
-      <c r="C12" s="8" t="n">
+      <c r="C12" s="8">
         <v>29400</v>
       </c>
-      <c r="D12" s="8" t="n">
+      <c r="D12" s="8">
         <v>8820</v>
       </c>
-      <c r="E12" s="8" t="n">
+      <c r="E12" s="8">
         <v>85630</v>
       </c>
-      <c r="F12" s="8" t="n">
+      <c r="F12" s="8">
         <v>25690</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1" s="21">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="n">
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3">
         <v>137</v>
       </c>
-      <c r="C13" s="8" t="n">
+      <c r="C13" s="8">
         <v>29880</v>
       </c>
-      <c r="D13" s="8" t="n">
+      <c r="D13" s="8">
         <v>8964</v>
       </c>
-      <c r="E13" s="8" t="n">
+      <c r="E13" s="8">
         <v>86900</v>
       </c>
-      <c r="F13" s="8" t="n">
+      <c r="F13" s="8">
         <v>26070</v>
       </c>
     </row>
-    <row r="14" ht="17.25" customHeight="1" s="21">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="n">
+    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="3">
         <v>140</v>
       </c>
-      <c r="C14" s="8" t="n">
+      <c r="C14" s="8">
         <v>30480</v>
       </c>
-      <c r="D14" s="8" t="n">
+      <c r="D14" s="8">
         <v>9144</v>
       </c>
-      <c r="E14" s="8" t="n">
+      <c r="E14" s="8">
         <v>88800</v>
       </c>
-      <c r="F14" s="8" t="n">
+      <c r="F14" s="8">
         <v>26640</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1" s="21">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="n">
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3">
         <v>150</v>
       </c>
-      <c r="C15" s="8" t="n">
+      <c r="C15" s="8">
         <v>35040</v>
       </c>
-      <c r="D15" s="8" t="n">
+      <c r="D15" s="8">
         <v>10512</v>
       </c>
-      <c r="E15" s="8" t="n">
+      <c r="E15" s="8">
         <v>102080</v>
       </c>
-      <c r="F15" s="8" t="n">
+      <c r="F15" s="8">
         <v>30620</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1" s="21">
-      <c r="A16" s="1" t="n"/>
-      <c r="B16" s="3" t="n">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3">
         <v>155</v>
       </c>
-      <c r="C16" s="8" t="n">
+      <c r="C16" s="8">
         <v>36240</v>
       </c>
-      <c r="D16" s="8" t="n">
+      <c r="D16" s="8">
         <v>10872</v>
       </c>
-      <c r="E16" s="8" t="n">
+      <c r="E16" s="8">
         <v>105520</v>
       </c>
-      <c r="F16" s="8" t="n">
+      <c r="F16" s="8">
         <v>31660</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1" s="21">
-      <c r="A17" s="1" t="n"/>
-      <c r="B17" s="3" t="n">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="3">
         <v>160</v>
       </c>
-      <c r="C17" s="8" t="n">
+      <c r="C17" s="8">
         <v>37440</v>
       </c>
-      <c r="D17" s="8" t="n">
+      <c r="D17" s="8">
         <v>11232</v>
       </c>
-      <c r="E17" s="8" t="n">
+      <c r="E17" s="8">
         <v>108960</v>
       </c>
-      <c r="F17" s="8" t="n">
+      <c r="F17" s="8">
         <v>32690</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1" s="21">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="n">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="3">
         <v>163</v>
       </c>
-      <c r="C18" s="8" t="n">
+      <c r="C18" s="8">
         <v>38040</v>
       </c>
-      <c r="D18" s="8" t="n">
+      <c r="D18" s="8">
         <v>11412</v>
       </c>
-      <c r="E18" s="8" t="n">
+      <c r="E18" s="8">
         <v>111040</v>
       </c>
-      <c r="F18" s="8" t="n">
+      <c r="F18" s="8">
         <v>33310</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1" s="21">
-      <c r="A19" s="1" t="n"/>
-      <c r="B19" s="3" t="n">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="3">
         <v>165</v>
       </c>
-      <c r="C19" s="8" t="n">
+      <c r="C19" s="8">
         <v>38520</v>
       </c>
-      <c r="D19" s="8" t="n">
+      <c r="D19" s="8">
         <v>11556</v>
       </c>
-      <c r="E19" s="8" t="n">
+      <c r="E19" s="8">
         <v>112400</v>
       </c>
-      <c r="F19" s="8" t="n">
+      <c r="F19" s="8">
         <v>33720</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1" s="21">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="3" t="n">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3">
         <v>171</v>
       </c>
-      <c r="C20" s="8" t="n">
+      <c r="C20" s="8">
         <v>42720</v>
       </c>
-      <c r="D20" s="8" t="n">
+      <c r="D20" s="8">
         <v>12816</v>
       </c>
-      <c r="E20" s="8" t="n">
+      <c r="E20" s="8">
         <v>123890</v>
       </c>
-      <c r="F20" s="8" t="n">
+      <c r="F20" s="8">
         <v>37170</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1" s="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="n">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="3">
         <v>175</v>
       </c>
-      <c r="C21" s="8" t="n">
+      <c r="C21" s="8">
         <v>43440</v>
       </c>
-      <c r="D21" s="8" t="n">
+      <c r="D21" s="8">
         <v>13032</v>
       </c>
-      <c r="E21" s="8" t="n">
+      <c r="E21" s="8">
         <v>125980</v>
       </c>
-      <c r="F21" s="8" t="n">
+      <c r="F21" s="8">
         <v>37790</v>
       </c>
     </row>
-    <row r="22" ht="15.75" customHeight="1" s="21">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="n">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="3">
         <v>180</v>
       </c>
-      <c r="C22" s="8" t="n">
+      <c r="C22" s="8">
         <v>44760</v>
       </c>
-      <c r="D22" s="8" t="n">
+      <c r="D22" s="8">
         <v>13428</v>
       </c>
-      <c r="E22" s="8" t="n">
+      <c r="E22" s="8">
         <v>130240</v>
       </c>
-      <c r="F22" s="8" t="n">
+      <c r="F22" s="8">
         <v>39070</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1" s="21">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="n">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="3">
         <v>185</v>
       </c>
-      <c r="C23" s="8" t="n">
+      <c r="C23" s="8">
         <v>46020</v>
       </c>
-      <c r="D23" s="8" t="n">
+      <c r="D23" s="8">
         <v>13806</v>
       </c>
-      <c r="E23" s="8" t="n">
+      <c r="E23" s="8">
         <v>133820</v>
       </c>
-      <c r="F23" s="8" t="n">
+      <c r="F23" s="8">
         <v>40150</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1" s="21">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="3" t="n">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="3">
         <v>192</v>
       </c>
-      <c r="C24" s="8" t="n">
+      <c r="C24" s="8">
         <v>47760</v>
       </c>
-      <c r="D24" s="8" t="n">
+      <c r="D24" s="8">
         <v>14328</v>
       </c>
-      <c r="E24" s="8" t="n">
+      <c r="E24" s="8">
         <v>138880</v>
       </c>
-      <c r="F24" s="8" t="n">
+      <c r="F24" s="8">
         <v>41660</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1" s="21">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="n">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3">
         <v>202</v>
       </c>
-      <c r="C25" s="8" t="n">
+      <c r="C25" s="8">
         <v>50160</v>
       </c>
-      <c r="D25" s="8" t="n">
+      <c r="D25" s="8">
         <v>15048</v>
       </c>
-      <c r="E25" s="8" t="n">
+      <c r="E25" s="8">
         <v>146320</v>
       </c>
-      <c r="F25" s="8" t="n">
+      <c r="F25" s="8">
         <v>43900</v>
       </c>
-      <c r="G25" s="14" t="n"/>
-      <c r="I25" s="15" t="n"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1" s="21">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="n">
+      <c r="G25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="3">
         <v>203</v>
       </c>
-      <c r="C26" s="8" t="n">
+      <c r="C26" s="8">
         <v>50400</v>
       </c>
-      <c r="D26" s="8" t="n">
+      <c r="D26" s="8">
         <v>15120</v>
       </c>
-      <c r="E26" s="8" t="n">
+      <c r="E26" s="8">
         <v>147050</v>
       </c>
-      <c r="F26" s="8" t="n">
+      <c r="F26" s="8">
         <v>44110</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1" s="21">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="n">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="3">
         <v>204</v>
       </c>
-      <c r="C27" s="8" t="n">
+      <c r="C27" s="8">
         <v>50640</v>
       </c>
-      <c r="D27" s="8" t="n">
+      <c r="D27" s="8">
         <v>15192</v>
       </c>
-      <c r="E27" s="8" t="n">
+      <c r="E27" s="8">
         <v>147770</v>
       </c>
-      <c r="F27" s="8" t="n">
+      <c r="F27" s="8">
         <v>44330</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1" s="21">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="3" t="n">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="3">
         <v>220</v>
       </c>
-      <c r="C28" s="8" t="n">
+      <c r="C28" s="8">
         <v>54720</v>
       </c>
-      <c r="D28" s="8" t="n">
+      <c r="D28" s="8">
         <v>16416</v>
       </c>
-      <c r="E28" s="8" t="n">
+      <c r="E28" s="8">
         <v>159360</v>
       </c>
-      <c r="F28" s="8" t="n">
+      <c r="F28" s="8">
         <v>47810</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1" s="21">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="3" t="n">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="3">
         <v>224</v>
       </c>
-      <c r="C29" s="8" t="n">
+      <c r="C29" s="8">
         <v>55716</v>
       </c>
-      <c r="D29" s="8" t="n">
+      <c r="D29" s="8">
         <v>16714.8</v>
       </c>
-      <c r="E29" s="8" t="n">
+      <c r="E29" s="8">
         <v>162000</v>
       </c>
-      <c r="F29" s="8" t="n">
+      <c r="F29" s="8">
         <v>48600</v>
       </c>
     </row>
-    <row r="30" ht="15.75" customHeight="1" s="21">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="3" t="n">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3">
         <v>225</v>
       </c>
-      <c r="C30" s="8" t="n">
+      <c r="C30" s="8">
         <v>55956</v>
       </c>
-      <c r="D30" s="8" t="n">
+      <c r="D30" s="8">
         <v>16786.8</v>
       </c>
-      <c r="E30" s="8" t="n">
+      <c r="E30" s="8">
         <v>162720</v>
       </c>
-      <c r="F30" s="8" t="n">
+      <c r="F30" s="8">
         <v>48820</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1" s="21">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="3" t="n">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="3">
         <v>230</v>
       </c>
-      <c r="C31" s="8" t="n">
+      <c r="C31" s="8">
         <v>57204</v>
       </c>
-      <c r="D31" s="8" t="n">
+      <c r="D31" s="8">
         <v>17161.2</v>
       </c>
-      <c r="E31" s="8" t="n">
+      <c r="E31" s="8">
         <v>166340</v>
       </c>
-      <c r="F31" s="8" t="n">
+      <c r="F31" s="8">
         <v>49900</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1" s="21">
-      <c r="A32" s="1" t="n"/>
-      <c r="B32" s="3" t="n">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="3">
         <v>235</v>
       </c>
-      <c r="C32" s="8" t="n">
+      <c r="C32" s="8">
         <v>66036</v>
       </c>
-      <c r="D32" s="8" t="n">
+      <c r="D32" s="8">
         <v>19810.8</v>
       </c>
-      <c r="E32" s="8" t="n">
+      <c r="E32" s="8">
         <v>191500</v>
       </c>
-      <c r="F32" s="8" t="n">
+      <c r="F32" s="8">
         <v>57450</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1" s="21">
-      <c r="A33" s="1" t="n"/>
-      <c r="B33" s="3" t="n">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="3">
         <v>240</v>
       </c>
-      <c r="C33" s="8" t="n">
+      <c r="C33" s="8">
         <v>67440</v>
       </c>
-      <c r="D33" s="8" t="n">
+      <c r="D33" s="8">
         <v>20232</v>
       </c>
-      <c r="E33" s="8" t="n">
+      <c r="E33" s="8">
         <v>195580</v>
       </c>
-      <c r="F33" s="8" t="n">
+      <c r="F33" s="8">
         <v>58670</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1" s="21">
-      <c r="A34" s="1" t="n"/>
-      <c r="B34" s="3" t="n">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="3">
         <v>245</v>
       </c>
-      <c r="C34" s="8" t="n">
+      <c r="C34" s="8">
         <v>68088</v>
       </c>
-      <c r="D34" s="8" t="n">
-        <v>20426.4</v>
-      </c>
-      <c r="E34" s="8" t="n">
+      <c r="D34" s="8">
+        <v>20426.400000000001</v>
+      </c>
+      <c r="E34" s="8">
         <v>197460</v>
       </c>
-      <c r="F34" s="8" t="n">
+      <c r="F34" s="8">
         <v>59240</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1" s="21">
-      <c r="A35" s="1" t="n"/>
-      <c r="B35" s="3" t="n">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3">
         <v>250</v>
       </c>
-      <c r="C35" s="8" t="n">
+      <c r="C35" s="8">
         <v>69480</v>
       </c>
-      <c r="D35" s="8" t="n">
+      <c r="D35" s="8">
         <v>20844</v>
       </c>
-      <c r="E35" s="8" t="n">
+      <c r="E35" s="8">
         <v>201490</v>
       </c>
-      <c r="F35" s="8" t="n">
+      <c r="F35" s="8">
         <v>60450</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1" s="21">
-      <c r="A36" s="1" t="n"/>
-      <c r="B36" s="3" t="n">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="3">
         <v>255</v>
       </c>
-      <c r="C36" s="8" t="n">
+      <c r="C36" s="8">
         <v>101388</v>
       </c>
-      <c r="D36" s="8" t="n">
-        <v>30416.4</v>
-      </c>
-      <c r="E36" s="8" t="n">
+      <c r="D36" s="8">
+        <v>30416.400000000001</v>
+      </c>
+      <c r="E36" s="8">
         <v>294030</v>
       </c>
-      <c r="F36" s="8" t="n">
+      <c r="F36" s="8">
         <v>88210</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1" s="21">
-      <c r="A37" s="1" t="n"/>
-      <c r="B37" s="3" t="n">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="3">
         <v>260</v>
       </c>
-      <c r="C37" s="8" t="n">
+      <c r="C37" s="8">
         <v>103380</v>
       </c>
-      <c r="D37" s="8" t="n">
+      <c r="D37" s="8">
         <v>31014</v>
       </c>
-      <c r="E37" s="8" t="n">
+      <c r="E37" s="8">
         <v>299800</v>
       </c>
-      <c r="F37" s="8" t="n">
+      <c r="F37" s="8">
         <v>89940</v>
       </c>
     </row>
-    <row r="38" ht="15.75" customHeight="1" s="21">
-      <c r="A38" s="1" t="n"/>
-      <c r="B38" s="3" t="n">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="3">
         <v>265</v>
       </c>
-      <c r="C38" s="8" t="n">
+      <c r="C38" s="8">
         <v>105360</v>
       </c>
-      <c r="D38" s="8" t="n">
+      <c r="D38" s="8">
         <v>31608</v>
       </c>
-      <c r="E38" s="8" t="n">
+      <c r="E38" s="8">
         <v>305540</v>
       </c>
-      <c r="F38" s="8" t="n">
+      <c r="F38" s="8">
         <v>91660</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1" s="21">
-      <c r="A39" s="1" t="n"/>
-      <c r="B39" s="3" t="n">
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="3">
         <v>305</v>
       </c>
-      <c r="C39" s="8" t="n">
+      <c r="C39" s="8">
         <v>134430</v>
       </c>
-      <c r="D39" s="8" t="n">
+      <c r="D39" s="8">
         <v>40329</v>
       </c>
-      <c r="E39" s="8" t="n">
+      <c r="E39" s="8">
         <v>389860</v>
       </c>
-      <c r="F39" s="8" t="n">
+      <c r="F39" s="8">
         <v>116960</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1" s="21">
-      <c r="A40" s="1" t="n"/>
-      <c r="B40" s="3" t="n">
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3">
         <v>310</v>
       </c>
-      <c r="C40" s="8" t="n">
+      <c r="C40" s="8">
         <v>136630</v>
       </c>
-      <c r="D40" s="8" t="n">
+      <c r="D40" s="8">
         <v>40989</v>
       </c>
-      <c r="E40" s="8" t="n">
+      <c r="E40" s="8">
         <v>396250</v>
       </c>
-      <c r="F40" s="8" t="n">
+      <c r="F40" s="8">
         <v>118870</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1" s="21">
-      <c r="A41" s="1" t="n"/>
-      <c r="B41" s="3" t="n">
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="3">
         <v>335</v>
       </c>
-      <c r="C41" s="8" t="n">
+      <c r="C41" s="8">
         <v>147650</v>
       </c>
-      <c r="D41" s="8" t="n">
+      <c r="D41" s="8">
         <v>44295</v>
       </c>
-      <c r="E41" s="8" t="n">
+      <c r="E41" s="8">
         <v>428200</v>
       </c>
-      <c r="F41" s="8" t="n">
+      <c r="F41" s="8">
         <v>128460</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1" s="21">
-      <c r="A42" s="1" t="n"/>
-      <c r="B42" s="3" t="n">
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="3">
         <v>338</v>
       </c>
-      <c r="C42" s="8" t="n">
+      <c r="C42" s="8">
         <v>149860</v>
       </c>
-      <c r="D42" s="8" t="n">
+      <c r="D42" s="8">
         <v>44958</v>
       </c>
-      <c r="E42" s="8" t="n">
+      <c r="E42" s="8">
         <v>434590</v>
       </c>
-      <c r="F42" s="8" t="n">
+      <c r="F42" s="8">
         <v>130380</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1" s="21">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="3" t="n">
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3">
         <v>340</v>
       </c>
-      <c r="C43" s="8" t="n">
+      <c r="C43" s="8">
         <v>149860</v>
       </c>
-      <c r="D43" s="8" t="n">
+      <c r="D43" s="8">
         <v>44958</v>
       </c>
-      <c r="E43" s="8" t="n">
+      <c r="E43" s="8">
         <v>434590</v>
       </c>
-      <c r="F43" s="8" t="n">
+      <c r="F43" s="8">
         <v>130380</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1" s="21">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>КК-62, КК-82</t>
-        </is>
-      </c>
-      <c r="C44" s="8" t="n">
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="8">
         <v>34800</v>
       </c>
-      <c r="D44" s="8" t="n">
+      <c r="D44" s="8">
         <v>10440</v>
       </c>
-      <c r="E44" s="8" t="n">
+      <c r="E44" s="8">
         <v>100920</v>
       </c>
-      <c r="F44" s="8" t="n">
+      <c r="F44" s="8">
         <v>30280</v>
       </c>
     </row>
-    <row r="45" ht="17.25" customHeight="1" s="21"/>
-    <row r="46" ht="15.75" customHeight="1" s="21">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Cook картр.</t>
-        </is>
-      </c>
-      <c r="B46" s="4" t="inlineStr">
-        <is>
-          <t>Кольцо</t>
-        </is>
-      </c>
-      <c r="C46" s="6" t="n">
+    <row r="45" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="6">
         <v>482</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1" s="21">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>#18-5,6,8,9</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="inlineStr">
-        <is>
-          <t>Пружина</t>
-        </is>
-      </c>
-      <c r="C47" s="6" t="n">
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C47" s="6">
         <v>65</v>
       </c>
     </row>
-    <row r="48" ht="15.75" customHeight="1" s="21">
-      <c r="B48" s="4" t="inlineStr">
-        <is>
-          <t>Картридж (бочонок)</t>
-        </is>
-      </c>
-      <c r="C48" s="6" t="n">
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" s="6">
         <v>963</v>
       </c>
     </row>
-    <row r="49" ht="15.75" customHeight="1" s="21">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>#21</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="inlineStr">
-        <is>
-          <t>Пружина</t>
-        </is>
-      </c>
-      <c r="C49" s="6" t="n">
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C49" s="6">
         <v>650</v>
       </c>
     </row>
-    <row r="51" ht="163.15" customHeight="1" s="21">
-      <c r="A51" s="20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">-Вилка РУ на клапаны диаметром до 150мм – 15000 (Без НДС)
--Вилка РУ на клапаны диаметром от 150мм до 250мм – 25000 (Без НДС)
--Вилка РУ на клапаны диаметром от 250мм – 35000 (Без НДС)
--КК = с/с клапана +40%
--Стоимость ЗИП по умолчанию составляет 30% стоимости клапана
-Цены:
-- на клапаны для перепада и конечного давления более 6,4МПа 
-- производителям компрессорного оборудования
-- пэкиджерам импортных компрессоров
-- ЗИП к импортным клапанам COOK, CPI, Hoerbiger
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="10" t="inlineStr">
-        <is>
-          <t>При подаче предложений на тендер взамен импортных клапанов цены согласовывать в обязательном порядке</t>
-        </is>
+    <row r="51" spans="1:6" ht="163.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B51" s="21"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="21"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="21"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1596,145 +1569,137 @@
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="C3:D3"/>
   </mergeCells>
-  <pageMargins left="0" right="0.2362204724409449" top="0" bottom="0.7480314960629921" header="0.3149606299212598" footer="0.3149606299212598"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="65"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <pageMargins left="0" right="0.23622047244094491" top="0" bottom="0.74803149606299213" header="0.31496062992125978" footer="0.31496062992125978"/>
+  <pageSetup paperSize="9" scale="65" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col width="14" customWidth="1" style="11" min="1" max="1"/>
-    <col width="15.140625" customWidth="1" style="11" min="2" max="2"/>
-    <col width="8.85546875" customWidth="1" style="11" min="3" max="574"/>
-    <col width="8.85546875" customWidth="1" style="11" min="575" max="16384"/>
+    <col min="1" max="1" width="14" style="11" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="11" customWidth="1"/>
+    <col min="3" max="630" width="8.85546875" style="11" customWidth="1"/>
+    <col min="631" max="16384" width="8.85546875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="13" t="inlineStr">
-        <is>
-          <t>Посадочный D</t>
-        </is>
-      </c>
-      <c r="B1" s="13" t="inlineStr">
-        <is>
-          <t>Кол-во пружин</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12" t="n">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
         <v>100</v>
       </c>
       <c r="B2" s="12">
-        <f>ROUND(POWER(A2/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="12" t="n">
+        <f t="shared" ref="B2:B12" si="0">ROUND(POWER(A2/2,1.5)/43,0)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
         <v>110</v>
       </c>
       <c r="B3" s="12">
-        <f>ROUND(POWER(A3/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
         <v>120</v>
       </c>
       <c r="B4" s="12">
-        <f>ROUND(POWER(A4/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
         <v>140</v>
       </c>
       <c r="B5" s="12">
-        <f>ROUND(POWER(A5/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
         <v>160</v>
       </c>
       <c r="B6" s="12">
-        <f>ROUND(POWER(A6/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
         <v>180</v>
       </c>
       <c r="B7" s="12">
-        <f>ROUND(POWER(A7/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
         <v>200</v>
       </c>
       <c r="B8" s="12">
-        <f>ROUND(POWER(A8/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
         <v>220</v>
       </c>
       <c r="B9" s="12">
-        <f>ROUND(POWER(A9/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
         <v>240</v>
       </c>
       <c r="B10" s="12">
-        <f>ROUND(POWER(A10/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
         <v>270</v>
       </c>
       <c r="B11" s="12">
-        <f>ROUND(POWER(A11/2,1.5)/43,0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="12" t="n">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
         <v>300</v>
       </c>
       <c r="B12" s="12">
-        <f>ROUND(POWER(A12/2,1.5)/43,0)</f>
-        <v/>
+        <f t="shared" si="0"/>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>